--- a/image/supplydelivery.xlsx
+++ b/image/supplydelivery.xlsx
@@ -805,45 +805,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.0078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.4765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.3515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.48828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="26.8125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="51.76171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.1171875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="26.89453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="51.4375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="58.65625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="31.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="59.3046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="30.91796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/supplydelivery.xlsx
+++ b/image/supplydelivery.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="206">
   <si>
     <t>Path</t>
   </si>
@@ -168,7 +168,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -507,10 +507,6 @@
   </si>
   <si>
     <t>SupplyDelivery.suppliedItem.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -805,45 +801,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.4765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.0078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.48828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.3515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="26.89453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="51.4375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="26.8125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="51.76171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.1171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="59.3046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="30.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="58.65625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="31.046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2760,13 +2756,13 @@
         <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2817,7 +2813,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -2835,7 +2831,7 @@
         <v>40</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>40</v>
@@ -2846,7 +2842,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2875,7 +2871,7 @@
         <v>95</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>97</v>
@@ -2928,7 +2924,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -2946,7 +2942,7 @@
         <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
@@ -2957,11 +2953,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -2983,10 +2979,10 @@
         <v>94</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M20" t="s" s="2">
         <v>97</v>
@@ -3041,7 +3037,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3070,7 +3066,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3093,13 +3089,13 @@
         <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3150,7 +3146,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3168,7 +3164,7 @@
         <v>40</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
@@ -3179,7 +3175,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3202,13 +3198,13 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3235,14 +3231,14 @@
         <v>40</v>
       </c>
       <c r="W22" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="X22" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="X22" t="s" s="2">
+      <c r="Y22" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="Y22" t="s" s="2">
-        <v>182</v>
-      </c>
       <c r="Z22" t="s" s="2">
         <v>40</v>
       </c>
@@ -3259,7 +3255,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3288,7 +3284,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3311,16 +3307,16 @@
         <v>50</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3370,7 +3366,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3385,21 +3381,21 @@
         <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>127</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3422,13 +3418,13 @@
         <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3479,7 +3475,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3494,10 +3490,10 @@
         <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
@@ -3508,7 +3504,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3531,13 +3527,13 @@
         <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3588,7 +3584,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3606,7 +3602,7 @@
         <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
@@ -3617,7 +3613,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3640,13 +3636,13 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3697,7 +3693,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -3715,7 +3711,7 @@
         <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>40</v>
